--- a/documents/Results_for_100000rows_MariaDB_10.5.6_Neo4J_4.1.3_18.10.2020.xlsx
+++ b/documents/Results_for_100000rows_MariaDB_10.5.6_Neo4J_4.1.3_18.10.2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests 18.10.2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Warehouse/Query tests 18.10.2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C8925-6335-EB4E-812F-E7027332BD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36008E02-EE2B-8F4B-8A52-44CAB178A543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="20400" windowWidth="28800" windowHeight="16700" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="20240" yWindow="22840" windowWidth="28800" windowHeight="16700" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
@@ -153,6 +153,54 @@
   </si>
   <si>
     <t>339434.83426042175</t>
+  </si>
+  <si>
+    <t>1000 invoices</t>
+  </si>
+  <si>
+    <t>Standard deviation (original)</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>20.93</t>
+  </si>
+  <si>
+    <t>11.13</t>
+  </si>
+  <si>
+    <t>611.80</t>
+  </si>
+  <si>
+    <t>1974.87</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>2588.30</t>
+  </si>
+  <si>
+    <t>531.01</t>
+  </si>
+  <si>
+    <t>1850.06</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>339434.83</t>
   </si>
 </sst>
 </file>
@@ -196,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -220,6 +268,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,325 +826,325 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>4724</v>
-      </c>
-      <c r="C25">
-        <v>2479</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4724</v>
+      </c>
+      <c r="C26">
+        <v>2479</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>5100</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>4129</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>12149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4734</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2490</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6069</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
-        <v>4739</v>
+        <v>4734</v>
       </c>
       <c r="C29" s="3">
-        <v>2585</v>
+        <v>2490</v>
       </c>
       <c r="D29" s="3">
-        <v>6095</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2">
         <v>4739</v>
       </c>
       <c r="C30" s="3">
-        <v>3131</v>
+        <v>2585</v>
       </c>
       <c r="D30" s="3">
-        <v>6111</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
-        <v>4742</v>
+        <v>4739</v>
       </c>
       <c r="C31" s="3">
-        <v>3331</v>
+        <v>3131</v>
       </c>
       <c r="D31" s="3">
-        <v>9838</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>4745</v>
+        <v>4742</v>
       </c>
       <c r="C32" s="3">
-        <v>3346</v>
+        <v>3331</v>
       </c>
       <c r="D32" s="3">
-        <v>10399</v>
+        <v>9838</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
-        <v>4748</v>
+        <v>4745</v>
       </c>
       <c r="C33" s="3">
-        <v>4009</v>
+        <v>3346</v>
       </c>
       <c r="D33" s="3">
-        <v>10410</v>
+        <v>10399</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="C34" s="3">
-        <v>4085</v>
+        <v>4009</v>
       </c>
       <c r="D34" s="3">
-        <v>10487</v>
+        <v>10410</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>4754</v>
+        <v>4749</v>
       </c>
       <c r="C35" s="3">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="D35" s="3">
-        <v>10506</v>
+        <v>10487</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2">
-        <v>4761</v>
+        <v>4754</v>
       </c>
       <c r="C36" s="3">
-        <v>4115</v>
+        <v>4087</v>
       </c>
       <c r="D36" s="3">
-        <v>10514</v>
+        <v>10506</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4761</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4115</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>4781</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C38" s="3">
         <v>4118</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>10515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39">
-        <v>4749</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3529</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9094</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="6">
-        <f>(D39-B39)/B39</f>
-        <v>0.91492945883343857</v>
-      </c>
-      <c r="C40" s="7">
-        <f>(D39-C39)/D39</f>
-        <v>0.61194193974048827</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>4749</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3529</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9094</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="6">
+        <f>(D40-B40)/B40</f>
+        <v>0.91492945883343857</v>
+      </c>
+      <c r="C41" s="7">
+        <f>(D40-C40)/D40</f>
+        <v>0.61194193974048827</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>30</v>
+      <c r="B42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>16</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>20</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>1</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>4</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -1095,13 +1152,13 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -1110,12 +1167,12 @@
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -1124,18 +1181,18 @@
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="3">
         <v>43</v>
@@ -1143,49 +1200,49 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="3">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -1194,524 +1251,597 @@
         <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>57</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
       </c>
       <c r="C61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="9">
-        <f>(D61-B61)/D61</f>
         <v>1</v>
       </c>
-      <c r="C62" s="8">
-        <f>(D61-C61)/D61</f>
-        <v>1</v>
-      </c>
-      <c r="D62" s="7">
-        <v>0</v>
+      <c r="D61" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="9">
+        <f>(D63-B63)/D63</f>
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
+        <f>(D63-C63)/D63</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>20</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="B68">
+      <c r="B71">
         <v>237064</v>
       </c>
-      <c r="C68">
+      <c r="C71">
         <v>4622</v>
       </c>
-      <c r="D68">
+      <c r="D71">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B69">
+      <c r="B72">
         <v>255837</v>
       </c>
-      <c r="C69">
+      <c r="C72">
         <v>7661</v>
       </c>
-      <c r="D69">
+      <c r="D72">
         <v>68234</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="3">
-        <v>238526</v>
-      </c>
-      <c r="C71" s="3">
-        <v>4627</v>
-      </c>
-      <c r="D71" s="2">
-        <v>60776</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="3">
-        <v>239922</v>
-      </c>
-      <c r="C72" s="3">
-        <v>4629</v>
-      </c>
-      <c r="D72" s="2">
-        <v>63266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="3">
-        <v>240948</v>
-      </c>
-      <c r="C73" s="3">
-        <v>4629</v>
-      </c>
-      <c r="D73" s="2">
-        <v>63619</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B74" s="3">
-        <v>241317</v>
+        <v>238526</v>
       </c>
       <c r="C74" s="3">
-        <v>4633</v>
+        <v>4627</v>
       </c>
       <c r="D74" s="2">
-        <v>64214</v>
+        <v>60776</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B75" s="3">
-        <v>241795</v>
+        <v>239922</v>
       </c>
       <c r="C75" s="3">
-        <v>4638</v>
+        <v>4629</v>
       </c>
       <c r="D75" s="2">
-        <v>64432</v>
+        <v>63266</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B76" s="3">
-        <v>242442</v>
+        <v>240948</v>
       </c>
       <c r="C76" s="3">
-        <v>4640</v>
+        <v>4629</v>
       </c>
       <c r="D76" s="2">
-        <v>65015</v>
+        <v>63619</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B77" s="3">
-        <v>244884</v>
+        <v>241317</v>
       </c>
       <c r="C77" s="3">
-        <v>4655</v>
+        <v>4633</v>
       </c>
       <c r="D77" s="2">
-        <v>65122</v>
+        <v>64214</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B78" s="3">
-        <v>245322</v>
+        <v>241795</v>
       </c>
       <c r="C78" s="3">
-        <v>4782</v>
+        <v>4638</v>
       </c>
       <c r="D78" s="2">
-        <v>66070</v>
+        <v>64432</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B79" s="3">
-        <v>246099</v>
+        <v>242442</v>
       </c>
       <c r="C79" s="3">
-        <v>5709</v>
+        <v>4640</v>
       </c>
       <c r="D79" s="2">
-        <v>66078</v>
+        <v>65015</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B80" s="3">
-        <v>246280</v>
+        <v>244884</v>
       </c>
       <c r="C80" s="3">
-        <v>6190</v>
+        <v>4655</v>
       </c>
       <c r="D80" s="2">
-        <v>68055</v>
+        <v>65122</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3">
+        <v>245322</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4782</v>
+      </c>
+      <c r="D81" s="2">
+        <v>66070</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3">
+        <v>246099</v>
+      </c>
+      <c r="C82" s="3">
+        <v>5709</v>
+      </c>
+      <c r="D82" s="2">
+        <v>66078</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="3">
+        <v>246280</v>
+      </c>
+      <c r="C83" s="3">
+        <v>6190</v>
+      </c>
+      <c r="D83" s="2">
+        <v>68055</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <v>242753</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C86" s="1">
         <v>4913</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D86" s="1">
         <v>64664</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" s="6">
-        <f>(B83-D83)/D83</f>
-        <v>2.75406717802796</v>
-      </c>
-      <c r="C84" s="7">
-        <f>(D83-C83)/D83</f>
-        <v>0.92402264010887047</v>
-      </c>
-      <c r="D84" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="6">
+        <f>(B86-D86)/D86</f>
+        <v>2.75406717802796</v>
+      </c>
+      <c r="C87" s="7">
+        <f>(D86-C86)/D86</f>
+        <v>0.92402264010887047</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C93" t="s">
         <v>20</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>1</v>
       </c>
-      <c r="B90">
+      <c r="B94">
         <v>73</v>
       </c>
-      <c r="C90">
+      <c r="C94">
         <v>80</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>2</v>
       </c>
-      <c r="B91">
+      <c r="B95">
         <v>95</v>
       </c>
-      <c r="C91">
+      <c r="C95">
         <v>89</v>
       </c>
-      <c r="D91">
+      <c r="D95">
         <v>1960607</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="3">
-        <v>73</v>
-      </c>
-      <c r="C93" s="3">
-        <v>80</v>
-      </c>
-      <c r="D93" s="3">
-        <v>644903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="3">
-        <v>73</v>
-      </c>
-      <c r="C94" s="3">
-        <v>80</v>
-      </c>
-      <c r="D94" s="3">
-        <v>652126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="3">
-        <v>73</v>
-      </c>
-      <c r="C95" s="3">
-        <v>80</v>
-      </c>
-      <c r="D95" s="3">
-        <v>660989</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="3">
-        <v>73</v>
-      </c>
-      <c r="C96" s="3">
-        <v>80</v>
-      </c>
-      <c r="D96" s="3">
-        <v>670431</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B97" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="3">
         <v>80</v>
       </c>
       <c r="D97" s="3">
-        <v>1042328</v>
+        <v>644903</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B98" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98" s="3">
-        <v>1181718</v>
+        <v>652126</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B99" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D99" s="3">
-        <v>1260381</v>
+        <v>660989</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B100" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C100" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D100" s="3">
-        <v>1425756</v>
+        <v>670431</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B101" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C101" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101" s="3">
-        <v>1427974</v>
+        <v>1042328</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B102" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C102" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D102" s="3">
-        <v>1484584</v>
+        <v>1181718</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="3">
+        <v>74</v>
+      </c>
+      <c r="C103" s="3">
+        <v>81</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1260381</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="1">
-        <v>73</v>
-      </c>
-      <c r="C104" s="1">
-        <v>80</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1045119</v>
+        <v>10</v>
+      </c>
+      <c r="B104" s="3">
+        <v>75</v>
+      </c>
+      <c r="C104" s="3">
+        <v>81</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1425756</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="7">
-        <f>(D104-B104)/D104</f>
-        <v>0.99993015149471021</v>
-      </c>
-      <c r="C105" s="7">
-        <f>(D104-C104)/D104</f>
-        <v>0.99992345369283309</v>
-      </c>
-      <c r="D105" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B105" s="3">
+        <v>75</v>
+      </c>
+      <c r="C105" s="3">
+        <v>81</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1427974</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="3">
+        <v>75</v>
+      </c>
+      <c r="C106" s="3">
+        <v>83</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1484584</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="1">
+        <v>73</v>
+      </c>
+      <c r="C108" s="1">
+        <v>80</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1045119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="7">
+        <f>(D108-B108)/D108</f>
+        <v>0.99993015149471021</v>
+      </c>
+      <c r="C109" s="7">
+        <f>(D108-C108)/D108</f>
+        <v>0.99992345369283309</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B110" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>39</v>
       </c>
     </row>
